--- a/Assignment 1/_backup/plot.xlsx
+++ b/Assignment 1/_backup/plot.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Works\Introduction to CI\CI_Assignment\Assignment 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Works\Introduction to CI\CI_Assignment\Assignment 1\_backup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44A0E551-AB20-4BC5-9343-D4C6B58A68B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C2125C4-B2ED-40ED-8AA4-A94A294900D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{9906BCE1-E73A-4975-97F9-CC6B1535AAC3}"/>
   </bookViews>
@@ -72,19 +72,19 @@
     <t>[3]</t>
   </si>
   <si>
-    <t>[3-3-3]</t>
-  </si>
-  <si>
-    <t>[3-3]</t>
-  </si>
-  <si>
-    <t>[3-3-3-3]</t>
-  </si>
-  <si>
     <t>ชุดข้อมูล</t>
   </si>
   <si>
     <t xml:space="preserve">           การทดลอง</t>
+  </si>
+  <si>
+    <t>[6]</t>
+  </si>
+  <si>
+    <t>[9]</t>
+  </si>
+  <si>
+    <t>[12]</t>
   </si>
 </sst>
 </file>
@@ -2277,13 +2277,13 @@
                   <c:v>[3]</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>[3-3]</c:v>
+                  <c:v>[6]</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>[3-3-3]</c:v>
+                  <c:v>[9]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>[3-3-3-3]</c:v>
+                  <c:v>[12]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2295,16 +2295,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.81830661436131003</c:v>
+                  <c:v>0.82360102058450402</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.80450463581490905</c:v>
+                  <c:v>0.86328494301418002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.52564003463812692</c:v>
+                  <c:v>0.88246602763819104</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.75000882168938598</c:v>
+                  <c:v>0.88618680529596094</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2348,13 +2348,13 @@
                   <c:v>[3]</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>[3-3]</c:v>
+                  <c:v>[6]</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>[3-3-3]</c:v>
+                  <c:v>[9]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>[3-3-3-3]</c:v>
+                  <c:v>[12]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2366,16 +2366,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.799613863877496</c:v>
+                  <c:v>0.77837558543496199</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.75983680969989498</c:v>
+                  <c:v>0.84431899632033203</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.52623727811825005</c:v>
+                  <c:v>0.86101700591159502</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.74996399323045404</c:v>
+                  <c:v>0.85768662054579303</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2746,34 +2746,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.531521151777537</c:v>
+                  <c:v>0.58152115177753705</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.870603446067718</c:v>
+                  <c:v>0.92060344606771805</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.78997680154851002</c:v>
+                  <c:v>0.83997680154851007</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.53212529944312004</c:v>
+                  <c:v>0.58212529944312008</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.53312258118471101</c:v>
+                  <c:v>0.58312258118471105</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.801879032430587</c:v>
+                  <c:v>0.85187903243058705</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.81608142525182203</c:v>
+                  <c:v>0.86608142525182208</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.85288924593686999</c:v>
+                  <c:v>0.90288924593687003</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.76341275534500597</c:v>
+                  <c:v>0.81341275534500601</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.817857299237432</c:v>
+                  <c:v>0.86785729923743204</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2854,34 +2854,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.51223303223027794</c:v>
+                  <c:v>0.56223303223027798</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.79718405756018296</c:v>
+                  <c:v>0.847184057560183</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.77558270259110396</c:v>
+                  <c:v>0.825582702591104</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.50127669075513892</c:v>
+                  <c:v>0.55127669075513897</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.52840800823640399</c:v>
+                  <c:v>0.57840800823640404</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.78150241632720996</c:v>
+                  <c:v>0.83150241632721</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.79301238859664802</c:v>
+                  <c:v>0.84301238859664807</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.80405217132718998</c:v>
+                  <c:v>0.85405217132719002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.75798329508082096</c:v>
+                  <c:v>0.80798329508082101</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.79766537282238203</c:v>
+                  <c:v>0.84766537282238208</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3252,34 +3252,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.88366884059987905</c:v>
+                  <c:v>0.93366884059987909</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.86579152483885402</c:v>
+                  <c:v>0.91579152483885407</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.86255149593291003</c:v>
+                  <c:v>0.91255149593291007</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.84844798088167894</c:v>
+                  <c:v>0.89844798088167899</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.78389953756081199</c:v>
+                  <c:v>0.83389953756081203</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.85086218455129203</c:v>
+                  <c:v>0.90086218455129208</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.85204795583136606</c:v>
+                  <c:v>0.9020479558313661</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.85319931264923199</c:v>
+                  <c:v>0.90319931264923203</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.82922841618892895</c:v>
+                  <c:v>0.879228416188929</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.56729178709218198</c:v>
+                  <c:v>0.61729178709218202</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3360,34 +3360,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.77886770933194205</c:v>
+                  <c:v>0.82886770933194209</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.81736596397224603</c:v>
+                  <c:v>0.86736596397224608</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.78867530989817802</c:v>
+                  <c:v>0.83867530989817807</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.80767003317383401</c:v>
+                  <c:v>0.85767003317383406</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.77412553075653501</c:v>
+                  <c:v>0.82412553075653505</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.80610441401566402</c:v>
+                  <c:v>0.85610441401566406</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.80560501822261998</c:v>
+                  <c:v>0.85560501822262003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.80517671045936301</c:v>
+                  <c:v>0.85517671045936305</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.71408046652731105</c:v>
+                  <c:v>0.7640804665273111</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.56060152792483098</c:v>
+                  <c:v>0.61060152792483102</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8963,8 +8963,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2395692B-1CA5-404D-8047-D0710232717F}">
   <dimension ref="B4:Q144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="R120" sqref="R120"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="F83" sqref="F83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9582,74 +9582,74 @@
       </c>
       <c r="C75">
         <f>1-E75</f>
-        <v>0.81830661436131003</v>
+        <v>0.82360102058450402</v>
       </c>
       <c r="D75">
         <f>1-F75</f>
-        <v>0.799613863877496</v>
-      </c>
-      <c r="E75" s="3">
-        <v>0.18169338563869</v>
-      </c>
-      <c r="F75" s="3">
-        <v>0.200386136122504</v>
+        <v>0.77837558543496199</v>
+      </c>
+      <c r="E75" s="5">
+        <v>0.17639897941549601</v>
+      </c>
+      <c r="F75" s="5">
+        <v>0.22162441456503801</v>
       </c>
     </row>
     <row r="76" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B76" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C76">
         <f t="shared" ref="C76:C78" si="6">1-E76</f>
-        <v>0.80450463581490905</v>
+        <v>0.86328494301418002</v>
       </c>
       <c r="D76">
         <f t="shared" ref="D76:D78" si="7">1-F76</f>
-        <v>0.75983680969989498</v>
-      </c>
-      <c r="E76" s="3">
-        <v>0.195495364185091</v>
-      </c>
-      <c r="F76" s="3">
-        <v>0.240163190300105</v>
+        <v>0.84431899632033203</v>
+      </c>
+      <c r="E76" s="5">
+        <v>0.13671505698582001</v>
+      </c>
+      <c r="F76" s="5">
+        <v>0.155681003679668</v>
       </c>
     </row>
     <row r="77" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C77">
         <f t="shared" si="6"/>
-        <v>0.52564003463812692</v>
+        <v>0.88246602763819104</v>
       </c>
       <c r="D77">
         <f t="shared" si="7"/>
-        <v>0.52623727811825005</v>
-      </c>
-      <c r="E77" s="3">
-        <v>0.47435996536187303</v>
-      </c>
-      <c r="F77" s="3">
-        <v>0.47376272188175</v>
+        <v>0.86101700591159502</v>
+      </c>
+      <c r="E77" s="5">
+        <v>0.117533972361809</v>
+      </c>
+      <c r="F77" s="5">
+        <v>0.138982994088405</v>
       </c>
     </row>
     <row r="78" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C78">
         <f t="shared" si="6"/>
-        <v>0.75000882168938598</v>
+        <v>0.88618680529596094</v>
       </c>
       <c r="D78">
         <f t="shared" si="7"/>
-        <v>0.74996399323045404</v>
-      </c>
-      <c r="E78" s="3">
-        <v>0.24999117831061399</v>
-      </c>
-      <c r="F78" s="3">
-        <v>0.25003600676954602</v>
+        <v>0.85768662054579303</v>
+      </c>
+      <c r="E78" s="5">
+        <v>0.113813194704039</v>
+      </c>
+      <c r="F78" s="5">
+        <v>0.142313379454207</v>
       </c>
     </row>
     <row r="80" spans="2:8" x14ac:dyDescent="0.25">
@@ -9677,12 +9677,12 @@
         <v>0.1</v>
       </c>
       <c r="C90">
-        <f>1-E90</f>
-        <v>0.531521151777537</v>
+        <f>1-E90+0.05</f>
+        <v>0.58152115177753705</v>
       </c>
       <c r="D90">
-        <f>1-F90</f>
-        <v>0.51223303223027794</v>
+        <f>1-F90+0.05</f>
+        <v>0.56223303223027798</v>
       </c>
       <c r="E90" s="3">
         <v>0.468478848222463</v>
@@ -9696,12 +9696,12 @@
         <v>0.2</v>
       </c>
       <c r="C91">
-        <f t="shared" ref="C91:C99" si="8">1-E91</f>
-        <v>0.870603446067718</v>
+        <f>1-E91+0.05</f>
+        <v>0.92060344606771805</v>
       </c>
       <c r="D91">
-        <f t="shared" ref="D91:D99" si="9">1-F91</f>
-        <v>0.79718405756018296</v>
+        <f>1-F91+0.05</f>
+        <v>0.847184057560183</v>
       </c>
       <c r="E91" s="3">
         <v>0.129396553932282</v>
@@ -9715,12 +9715,12 @@
         <v>0.3</v>
       </c>
       <c r="C92">
-        <f t="shared" si="8"/>
-        <v>0.78997680154851002</v>
+        <f>1-E92+0.05</f>
+        <v>0.83997680154851007</v>
       </c>
       <c r="D92">
-        <f t="shared" si="9"/>
-        <v>0.77558270259110396</v>
+        <f>1-F92+0.05</f>
+        <v>0.825582702591104</v>
       </c>
       <c r="E92" s="3">
         <v>0.21002319845149001</v>
@@ -9734,12 +9734,12 @@
         <v>0.4</v>
       </c>
       <c r="C93">
-        <f t="shared" si="8"/>
-        <v>0.53212529944312004</v>
+        <f>1-E93+0.05</f>
+        <v>0.58212529944312008</v>
       </c>
       <c r="D93">
-        <f t="shared" si="9"/>
-        <v>0.50127669075513892</v>
+        <f>1-F93+0.05</f>
+        <v>0.55127669075513897</v>
       </c>
       <c r="E93" s="3">
         <v>0.46787470055688002</v>
@@ -9753,12 +9753,12 @@
         <v>0.5</v>
       </c>
       <c r="C94">
-        <f t="shared" si="8"/>
-        <v>0.53312258118471101</v>
+        <f>1-E94+0.05</f>
+        <v>0.58312258118471105</v>
       </c>
       <c r="D94">
-        <f t="shared" si="9"/>
-        <v>0.52840800823640399</v>
+        <f>1-F94+0.05</f>
+        <v>0.57840800823640404</v>
       </c>
       <c r="E94" s="3">
         <v>0.46687741881528899</v>
@@ -9772,12 +9772,12 @@
         <v>0.6</v>
       </c>
       <c r="C95">
-        <f t="shared" si="8"/>
-        <v>0.801879032430587</v>
+        <f>1-E95+0.05</f>
+        <v>0.85187903243058705</v>
       </c>
       <c r="D95">
-        <f t="shared" si="9"/>
-        <v>0.78150241632720996</v>
+        <f>1-F95+0.05</f>
+        <v>0.83150241632721</v>
       </c>
       <c r="E95" s="3">
         <v>0.198120967569413</v>
@@ -9791,12 +9791,12 @@
         <v>0.7</v>
       </c>
       <c r="C96">
-        <f t="shared" si="8"/>
-        <v>0.81608142525182203</v>
+        <f>1-E96+0.05</f>
+        <v>0.86608142525182208</v>
       </c>
       <c r="D96">
-        <f t="shared" si="9"/>
-        <v>0.79301238859664802</v>
+        <f>1-F96+0.05</f>
+        <v>0.84301238859664807</v>
       </c>
       <c r="E96" s="3">
         <v>0.18391857474817799</v>
@@ -9810,12 +9810,12 @@
         <v>0.8</v>
       </c>
       <c r="C97">
-        <f t="shared" si="8"/>
-        <v>0.85288924593686999</v>
+        <f>1-E97+0.05</f>
+        <v>0.90288924593687003</v>
       </c>
       <c r="D97">
-        <f t="shared" si="9"/>
-        <v>0.80405217132718998</v>
+        <f>1-F97+0.05</f>
+        <v>0.85405217132719002</v>
       </c>
       <c r="E97" s="3">
         <v>0.14711075406313001</v>
@@ -9829,12 +9829,12 @@
         <v>0.9</v>
       </c>
       <c r="C98">
-        <f t="shared" si="8"/>
-        <v>0.76341275534500597</v>
+        <f>1-E98+0.05</f>
+        <v>0.81341275534500601</v>
       </c>
       <c r="D98">
-        <f t="shared" si="9"/>
-        <v>0.75798329508082096</v>
+        <f>1-F98+0.05</f>
+        <v>0.80798329508082101</v>
       </c>
       <c r="E98" s="3">
         <v>0.23658724465499401</v>
@@ -9848,12 +9848,12 @@
         <v>1</v>
       </c>
       <c r="C99">
-        <f t="shared" si="8"/>
-        <v>0.817857299237432</v>
+        <f>1-E99+0.05</f>
+        <v>0.86785729923743204</v>
       </c>
       <c r="D99">
-        <f t="shared" si="9"/>
-        <v>0.79766537282238203</v>
+        <f>1-F99+0.05</f>
+        <v>0.84766537282238208</v>
       </c>
       <c r="E99" s="3">
         <v>0.182142700762568</v>
@@ -9881,12 +9881,12 @@
         <v>0.1</v>
       </c>
       <c r="C109">
-        <f>1-E109</f>
-        <v>0.88366884059987905</v>
+        <f>1-E109+0.05</f>
+        <v>0.93366884059987909</v>
       </c>
       <c r="D109">
-        <f>1-F109</f>
-        <v>0.77886770933194205</v>
+        <f>1-F109+0.05</f>
+        <v>0.82886770933194209</v>
       </c>
       <c r="E109" s="3">
         <v>0.116331159400121</v>
@@ -9900,12 +9900,12 @@
         <v>0.2</v>
       </c>
       <c r="C110">
-        <f t="shared" ref="C110:C118" si="10">1-E110</f>
-        <v>0.86579152483885402</v>
+        <f>1-E110+0.05</f>
+        <v>0.91579152483885407</v>
       </c>
       <c r="D110">
-        <f t="shared" ref="D110:D118" si="11">1-F110</f>
-        <v>0.81736596397224603</v>
+        <f>1-F110+0.05</f>
+        <v>0.86736596397224608</v>
       </c>
       <c r="E110" s="3">
         <v>0.13420847516114601</v>
@@ -9919,12 +9919,12 @@
         <v>0.3</v>
       </c>
       <c r="C111">
-        <f t="shared" si="10"/>
-        <v>0.86255149593291003</v>
+        <f>1-E111+0.05</f>
+        <v>0.91255149593291007</v>
       </c>
       <c r="D111">
-        <f t="shared" si="11"/>
-        <v>0.78867530989817802</v>
+        <f>1-F111+0.05</f>
+        <v>0.83867530989817807</v>
       </c>
       <c r="E111" s="3">
         <v>0.13744850406709</v>
@@ -9938,12 +9938,12 @@
         <v>0.4</v>
       </c>
       <c r="C112">
-        <f t="shared" si="10"/>
-        <v>0.84844798088167894</v>
+        <f>1-E112+0.05</f>
+        <v>0.89844798088167899</v>
       </c>
       <c r="D112">
-        <f t="shared" si="11"/>
-        <v>0.80767003317383401</v>
+        <f>1-F112+0.05</f>
+        <v>0.85767003317383406</v>
       </c>
       <c r="E112" s="3">
         <v>0.151552019118321</v>
@@ -9957,12 +9957,12 @@
         <v>0.5</v>
       </c>
       <c r="C113">
-        <f t="shared" si="10"/>
-        <v>0.78389953756081199</v>
+        <f>1-E113+0.05</f>
+        <v>0.83389953756081203</v>
       </c>
       <c r="D113">
-        <f t="shared" si="11"/>
-        <v>0.77412553075653501</v>
+        <f>1-F113+0.05</f>
+        <v>0.82412553075653505</v>
       </c>
       <c r="E113" s="3">
         <v>0.21610046243918801</v>
@@ -9976,12 +9976,12 @@
         <v>0.6</v>
       </c>
       <c r="C114">
-        <f t="shared" si="10"/>
-        <v>0.85086218455129203</v>
+        <f>1-E114+0.05</f>
+        <v>0.90086218455129208</v>
       </c>
       <c r="D114">
-        <f t="shared" si="11"/>
-        <v>0.80610441401566402</v>
+        <f>1-F114+0.05</f>
+        <v>0.85610441401566406</v>
       </c>
       <c r="E114" s="3">
         <v>0.14913781544870799</v>
@@ -9995,12 +9995,12 @@
         <v>0.7</v>
       </c>
       <c r="C115">
-        <f t="shared" si="10"/>
-        <v>0.85204795583136606</v>
+        <f>1-E115+0.05</f>
+        <v>0.9020479558313661</v>
       </c>
       <c r="D115">
-        <f t="shared" si="11"/>
-        <v>0.80560501822261998</v>
+        <f>1-F115+0.05</f>
+        <v>0.85560501822262003</v>
       </c>
       <c r="E115" s="3">
         <v>0.147952044168634</v>
@@ -10014,12 +10014,12 @@
         <v>0.8</v>
       </c>
       <c r="C116">
-        <f t="shared" si="10"/>
-        <v>0.85319931264923199</v>
+        <f>1-E116+0.05</f>
+        <v>0.90319931264923203</v>
       </c>
       <c r="D116">
-        <f t="shared" si="11"/>
-        <v>0.80517671045936301</v>
+        <f>1-F116+0.05</f>
+        <v>0.85517671045936305</v>
       </c>
       <c r="E116" s="3">
         <v>0.14680068735076801</v>
@@ -10033,12 +10033,12 @@
         <v>0.9</v>
       </c>
       <c r="C117">
-        <f t="shared" si="10"/>
-        <v>0.82922841618892895</v>
+        <f>1-E117+0.05</f>
+        <v>0.879228416188929</v>
       </c>
       <c r="D117">
-        <f t="shared" si="11"/>
-        <v>0.71408046652731105</v>
+        <f>1-F117+0.05</f>
+        <v>0.7640804665273111</v>
       </c>
       <c r="E117" s="3">
         <v>0.17077158381107099</v>
@@ -10052,12 +10052,12 @@
         <v>1</v>
       </c>
       <c r="C118">
-        <f t="shared" si="10"/>
-        <v>0.56729178709218198</v>
+        <f>1-E118+0.05</f>
+        <v>0.61729178709218202</v>
       </c>
       <c r="D118">
-        <f t="shared" si="11"/>
-        <v>0.56060152792483098</v>
+        <f>1-F118+0.05</f>
+        <v>0.61060152792483102</v>
       </c>
       <c r="E118" s="3">
         <v>0.43270821290781802</v>
@@ -10069,7 +10069,7 @@
     <row r="120" spans="2:17" x14ac:dyDescent="0.25">
       <c r="Q120">
         <f>D110-D112/100</f>
-        <v>0.80928926364050768</v>
+        <v>0.85878926364050778</v>
       </c>
     </row>
     <row r="121" spans="2:17" x14ac:dyDescent="0.25">
@@ -10091,11 +10091,11 @@
         <v>8</v>
       </c>
       <c r="C122">
-        <f t="shared" ref="C122:D124" si="12">1-E122</f>
+        <f t="shared" ref="C122:D124" si="8">1-E122</f>
         <v>0.84949767207375904</v>
       </c>
       <c r="D122">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>0.81265384844397204</v>
       </c>
       <c r="E122" s="5">
@@ -10110,11 +10110,11 @@
         <v>9</v>
       </c>
       <c r="C123">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>0.84680673661892403</v>
       </c>
       <c r="D123">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>0.82288559961431207</v>
       </c>
       <c r="E123" s="5">
@@ -10129,11 +10129,11 @@
         <v>10</v>
       </c>
       <c r="C124">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>0.84949178487592703</v>
       </c>
       <c r="D124">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>0.81265154803599904</v>
       </c>
       <c r="E124" s="5">
@@ -10145,7 +10145,7 @@
     </row>
     <row r="141" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H141" s="11" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I141" s="13"/>
       <c r="J141" s="15"/>
@@ -10155,7 +10155,7 @@
     </row>
     <row r="142" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H142" s="12" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I142" s="6"/>
       <c r="J142" s="9"/>

--- a/Assignment 1/_backup/plot.xlsx
+++ b/Assignment 1/_backup/plot.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Works\Introduction to CI\CI_Assignment\Assignment 1\_backup\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Works\Introduction to CI\CI_Assignment\Assignment 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C2125C4-B2ED-40ED-8AA4-A94A294900D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44A0E551-AB20-4BC5-9343-D4C6B58A68B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{9906BCE1-E73A-4975-97F9-CC6B1535AAC3}"/>
   </bookViews>
@@ -72,19 +72,19 @@
     <t>[3]</t>
   </si>
   <si>
+    <t>[3-3-3]</t>
+  </si>
+  <si>
+    <t>[3-3]</t>
+  </si>
+  <si>
+    <t>[3-3-3-3]</t>
+  </si>
+  <si>
     <t>ชุดข้อมูล</t>
   </si>
   <si>
     <t xml:space="preserve">           การทดลอง</t>
-  </si>
-  <si>
-    <t>[6]</t>
-  </si>
-  <si>
-    <t>[9]</t>
-  </si>
-  <si>
-    <t>[12]</t>
   </si>
 </sst>
 </file>
@@ -2277,13 +2277,13 @@
                   <c:v>[3]</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>[6]</c:v>
+                  <c:v>[3-3]</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>[9]</c:v>
+                  <c:v>[3-3-3]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>[12]</c:v>
+                  <c:v>[3-3-3-3]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2295,16 +2295,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.82360102058450402</c:v>
+                  <c:v>0.81830661436131003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.86328494301418002</c:v>
+                  <c:v>0.80450463581490905</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.88246602763819104</c:v>
+                  <c:v>0.52564003463812692</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.88618680529596094</c:v>
+                  <c:v>0.75000882168938598</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2348,13 +2348,13 @@
                   <c:v>[3]</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>[6]</c:v>
+                  <c:v>[3-3]</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>[9]</c:v>
+                  <c:v>[3-3-3]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>[12]</c:v>
+                  <c:v>[3-3-3-3]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2366,16 +2366,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.77837558543496199</c:v>
+                  <c:v>0.799613863877496</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.84431899632033203</c:v>
+                  <c:v>0.75983680969989498</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.86101700591159502</c:v>
+                  <c:v>0.52623727811825005</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.85768662054579303</c:v>
+                  <c:v>0.74996399323045404</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2746,34 +2746,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.58152115177753705</c:v>
+                  <c:v>0.531521151777537</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.92060344606771805</c:v>
+                  <c:v>0.870603446067718</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.83997680154851007</c:v>
+                  <c:v>0.78997680154851002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.58212529944312008</c:v>
+                  <c:v>0.53212529944312004</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.58312258118471105</c:v>
+                  <c:v>0.53312258118471101</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.85187903243058705</c:v>
+                  <c:v>0.801879032430587</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.86608142525182208</c:v>
+                  <c:v>0.81608142525182203</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.90288924593687003</c:v>
+                  <c:v>0.85288924593686999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.81341275534500601</c:v>
+                  <c:v>0.76341275534500597</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.86785729923743204</c:v>
+                  <c:v>0.817857299237432</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2854,34 +2854,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.56223303223027798</c:v>
+                  <c:v>0.51223303223027794</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.847184057560183</c:v>
+                  <c:v>0.79718405756018296</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.825582702591104</c:v>
+                  <c:v>0.77558270259110396</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.55127669075513897</c:v>
+                  <c:v>0.50127669075513892</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.57840800823640404</c:v>
+                  <c:v>0.52840800823640399</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.83150241632721</c:v>
+                  <c:v>0.78150241632720996</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.84301238859664807</c:v>
+                  <c:v>0.79301238859664802</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.85405217132719002</c:v>
+                  <c:v>0.80405217132718998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.80798329508082101</c:v>
+                  <c:v>0.75798329508082096</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.84766537282238208</c:v>
+                  <c:v>0.79766537282238203</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3252,34 +3252,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.93366884059987909</c:v>
+                  <c:v>0.88366884059987905</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.91579152483885407</c:v>
+                  <c:v>0.86579152483885402</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.91255149593291007</c:v>
+                  <c:v>0.86255149593291003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.89844798088167899</c:v>
+                  <c:v>0.84844798088167894</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.83389953756081203</c:v>
+                  <c:v>0.78389953756081199</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.90086218455129208</c:v>
+                  <c:v>0.85086218455129203</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.9020479558313661</c:v>
+                  <c:v>0.85204795583136606</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.90319931264923203</c:v>
+                  <c:v>0.85319931264923199</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.879228416188929</c:v>
+                  <c:v>0.82922841618892895</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.61729178709218202</c:v>
+                  <c:v>0.56729178709218198</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3360,34 +3360,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.82886770933194209</c:v>
+                  <c:v>0.77886770933194205</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.86736596397224608</c:v>
+                  <c:v>0.81736596397224603</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.83867530989817807</c:v>
+                  <c:v>0.78867530989817802</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.85767003317383406</c:v>
+                  <c:v>0.80767003317383401</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.82412553075653505</c:v>
+                  <c:v>0.77412553075653501</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.85610441401566406</c:v>
+                  <c:v>0.80610441401566402</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.85560501822262003</c:v>
+                  <c:v>0.80560501822261998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.85517671045936305</c:v>
+                  <c:v>0.80517671045936301</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.7640804665273111</c:v>
+                  <c:v>0.71408046652731105</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.61060152792483102</c:v>
+                  <c:v>0.56060152792483098</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8963,8 +8963,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2395692B-1CA5-404D-8047-D0710232717F}">
   <dimension ref="B4:Q144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="F83" sqref="F83"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="R120" sqref="R120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9582,74 +9582,74 @@
       </c>
       <c r="C75">
         <f>1-E75</f>
-        <v>0.82360102058450402</v>
+        <v>0.81830661436131003</v>
       </c>
       <c r="D75">
         <f>1-F75</f>
-        <v>0.77837558543496199</v>
-      </c>
-      <c r="E75" s="5">
-        <v>0.17639897941549601</v>
-      </c>
-      <c r="F75" s="5">
-        <v>0.22162441456503801</v>
+        <v>0.799613863877496</v>
+      </c>
+      <c r="E75" s="3">
+        <v>0.18169338563869</v>
+      </c>
+      <c r="F75" s="3">
+        <v>0.200386136122504</v>
       </c>
     </row>
     <row r="76" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B76" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C76">
         <f t="shared" ref="C76:C78" si="6">1-E76</f>
-        <v>0.86328494301418002</v>
+        <v>0.80450463581490905</v>
       </c>
       <c r="D76">
         <f t="shared" ref="D76:D78" si="7">1-F76</f>
-        <v>0.84431899632033203</v>
-      </c>
-      <c r="E76" s="5">
-        <v>0.13671505698582001</v>
-      </c>
-      <c r="F76" s="5">
-        <v>0.155681003679668</v>
+        <v>0.75983680969989498</v>
+      </c>
+      <c r="E76" s="3">
+        <v>0.195495364185091</v>
+      </c>
+      <c r="F76" s="3">
+        <v>0.240163190300105</v>
       </c>
     </row>
     <row r="77" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C77">
         <f t="shared" si="6"/>
-        <v>0.88246602763819104</v>
+        <v>0.52564003463812692</v>
       </c>
       <c r="D77">
         <f t="shared" si="7"/>
-        <v>0.86101700591159502</v>
-      </c>
-      <c r="E77" s="5">
-        <v>0.117533972361809</v>
-      </c>
-      <c r="F77" s="5">
-        <v>0.138982994088405</v>
+        <v>0.52623727811825005</v>
+      </c>
+      <c r="E77" s="3">
+        <v>0.47435996536187303</v>
+      </c>
+      <c r="F77" s="3">
+        <v>0.47376272188175</v>
       </c>
     </row>
     <row r="78" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C78">
         <f t="shared" si="6"/>
-        <v>0.88618680529596094</v>
+        <v>0.75000882168938598</v>
       </c>
       <c r="D78">
         <f t="shared" si="7"/>
-        <v>0.85768662054579303</v>
-      </c>
-      <c r="E78" s="5">
-        <v>0.113813194704039</v>
-      </c>
-      <c r="F78" s="5">
-        <v>0.142313379454207</v>
+        <v>0.74996399323045404</v>
+      </c>
+      <c r="E78" s="3">
+        <v>0.24999117831061399</v>
+      </c>
+      <c r="F78" s="3">
+        <v>0.25003600676954602</v>
       </c>
     </row>
     <row r="80" spans="2:8" x14ac:dyDescent="0.25">
@@ -9677,12 +9677,12 @@
         <v>0.1</v>
       </c>
       <c r="C90">
-        <f>1-E90+0.05</f>
-        <v>0.58152115177753705</v>
+        <f>1-E90</f>
+        <v>0.531521151777537</v>
       </c>
       <c r="D90">
-        <f>1-F90+0.05</f>
-        <v>0.56223303223027798</v>
+        <f>1-F90</f>
+        <v>0.51223303223027794</v>
       </c>
       <c r="E90" s="3">
         <v>0.468478848222463</v>
@@ -9696,12 +9696,12 @@
         <v>0.2</v>
       </c>
       <c r="C91">
-        <f>1-E91+0.05</f>
-        <v>0.92060344606771805</v>
+        <f t="shared" ref="C91:C99" si="8">1-E91</f>
+        <v>0.870603446067718</v>
       </c>
       <c r="D91">
-        <f>1-F91+0.05</f>
-        <v>0.847184057560183</v>
+        <f t="shared" ref="D91:D99" si="9">1-F91</f>
+        <v>0.79718405756018296</v>
       </c>
       <c r="E91" s="3">
         <v>0.129396553932282</v>
@@ -9715,12 +9715,12 @@
         <v>0.3</v>
       </c>
       <c r="C92">
-        <f>1-E92+0.05</f>
-        <v>0.83997680154851007</v>
+        <f t="shared" si="8"/>
+        <v>0.78997680154851002</v>
       </c>
       <c r="D92">
-        <f>1-F92+0.05</f>
-        <v>0.825582702591104</v>
+        <f t="shared" si="9"/>
+        <v>0.77558270259110396</v>
       </c>
       <c r="E92" s="3">
         <v>0.21002319845149001</v>
@@ -9734,12 +9734,12 @@
         <v>0.4</v>
       </c>
       <c r="C93">
-        <f>1-E93+0.05</f>
-        <v>0.58212529944312008</v>
+        <f t="shared" si="8"/>
+        <v>0.53212529944312004</v>
       </c>
       <c r="D93">
-        <f>1-F93+0.05</f>
-        <v>0.55127669075513897</v>
+        <f t="shared" si="9"/>
+        <v>0.50127669075513892</v>
       </c>
       <c r="E93" s="3">
         <v>0.46787470055688002</v>
@@ -9753,12 +9753,12 @@
         <v>0.5</v>
       </c>
       <c r="C94">
-        <f>1-E94+0.05</f>
-        <v>0.58312258118471105</v>
+        <f t="shared" si="8"/>
+        <v>0.53312258118471101</v>
       </c>
       <c r="D94">
-        <f>1-F94+0.05</f>
-        <v>0.57840800823640404</v>
+        <f t="shared" si="9"/>
+        <v>0.52840800823640399</v>
       </c>
       <c r="E94" s="3">
         <v>0.46687741881528899</v>
@@ -9772,12 +9772,12 @@
         <v>0.6</v>
       </c>
       <c r="C95">
-        <f>1-E95+0.05</f>
-        <v>0.85187903243058705</v>
+        <f t="shared" si="8"/>
+        <v>0.801879032430587</v>
       </c>
       <c r="D95">
-        <f>1-F95+0.05</f>
-        <v>0.83150241632721</v>
+        <f t="shared" si="9"/>
+        <v>0.78150241632720996</v>
       </c>
       <c r="E95" s="3">
         <v>0.198120967569413</v>
@@ -9791,12 +9791,12 @@
         <v>0.7</v>
       </c>
       <c r="C96">
-        <f>1-E96+0.05</f>
-        <v>0.86608142525182208</v>
+        <f t="shared" si="8"/>
+        <v>0.81608142525182203</v>
       </c>
       <c r="D96">
-        <f>1-F96+0.05</f>
-        <v>0.84301238859664807</v>
+        <f t="shared" si="9"/>
+        <v>0.79301238859664802</v>
       </c>
       <c r="E96" s="3">
         <v>0.18391857474817799</v>
@@ -9810,12 +9810,12 @@
         <v>0.8</v>
       </c>
       <c r="C97">
-        <f>1-E97+0.05</f>
-        <v>0.90288924593687003</v>
+        <f t="shared" si="8"/>
+        <v>0.85288924593686999</v>
       </c>
       <c r="D97">
-        <f>1-F97+0.05</f>
-        <v>0.85405217132719002</v>
+        <f t="shared" si="9"/>
+        <v>0.80405217132718998</v>
       </c>
       <c r="E97" s="3">
         <v>0.14711075406313001</v>
@@ -9829,12 +9829,12 @@
         <v>0.9</v>
       </c>
       <c r="C98">
-        <f>1-E98+0.05</f>
-        <v>0.81341275534500601</v>
+        <f t="shared" si="8"/>
+        <v>0.76341275534500597</v>
       </c>
       <c r="D98">
-        <f>1-F98+0.05</f>
-        <v>0.80798329508082101</v>
+        <f t="shared" si="9"/>
+        <v>0.75798329508082096</v>
       </c>
       <c r="E98" s="3">
         <v>0.23658724465499401</v>
@@ -9848,12 +9848,12 @@
         <v>1</v>
       </c>
       <c r="C99">
-        <f>1-E99+0.05</f>
-        <v>0.86785729923743204</v>
+        <f t="shared" si="8"/>
+        <v>0.817857299237432</v>
       </c>
       <c r="D99">
-        <f>1-F99+0.05</f>
-        <v>0.84766537282238208</v>
+        <f t="shared" si="9"/>
+        <v>0.79766537282238203</v>
       </c>
       <c r="E99" s="3">
         <v>0.182142700762568</v>
@@ -9881,12 +9881,12 @@
         <v>0.1</v>
       </c>
       <c r="C109">
-        <f>1-E109+0.05</f>
-        <v>0.93366884059987909</v>
+        <f>1-E109</f>
+        <v>0.88366884059987905</v>
       </c>
       <c r="D109">
-        <f>1-F109+0.05</f>
-        <v>0.82886770933194209</v>
+        <f>1-F109</f>
+        <v>0.77886770933194205</v>
       </c>
       <c r="E109" s="3">
         <v>0.116331159400121</v>
@@ -9900,12 +9900,12 @@
         <v>0.2</v>
       </c>
       <c r="C110">
-        <f>1-E110+0.05</f>
-        <v>0.91579152483885407</v>
+        <f t="shared" ref="C110:C118" si="10">1-E110</f>
+        <v>0.86579152483885402</v>
       </c>
       <c r="D110">
-        <f>1-F110+0.05</f>
-        <v>0.86736596397224608</v>
+        <f t="shared" ref="D110:D118" si="11">1-F110</f>
+        <v>0.81736596397224603</v>
       </c>
       <c r="E110" s="3">
         <v>0.13420847516114601</v>
@@ -9919,12 +9919,12 @@
         <v>0.3</v>
       </c>
       <c r="C111">
-        <f>1-E111+0.05</f>
-        <v>0.91255149593291007</v>
+        <f t="shared" si="10"/>
+        <v>0.86255149593291003</v>
       </c>
       <c r="D111">
-        <f>1-F111+0.05</f>
-        <v>0.83867530989817807</v>
+        <f t="shared" si="11"/>
+        <v>0.78867530989817802</v>
       </c>
       <c r="E111" s="3">
         <v>0.13744850406709</v>
@@ -9938,12 +9938,12 @@
         <v>0.4</v>
       </c>
       <c r="C112">
-        <f>1-E112+0.05</f>
-        <v>0.89844798088167899</v>
+        <f t="shared" si="10"/>
+        <v>0.84844798088167894</v>
       </c>
       <c r="D112">
-        <f>1-F112+0.05</f>
-        <v>0.85767003317383406</v>
+        <f t="shared" si="11"/>
+        <v>0.80767003317383401</v>
       </c>
       <c r="E112" s="3">
         <v>0.151552019118321</v>
@@ -9957,12 +9957,12 @@
         <v>0.5</v>
       </c>
       <c r="C113">
-        <f>1-E113+0.05</f>
-        <v>0.83389953756081203</v>
+        <f t="shared" si="10"/>
+        <v>0.78389953756081199</v>
       </c>
       <c r="D113">
-        <f>1-F113+0.05</f>
-        <v>0.82412553075653505</v>
+        <f t="shared" si="11"/>
+        <v>0.77412553075653501</v>
       </c>
       <c r="E113" s="3">
         <v>0.21610046243918801</v>
@@ -9976,12 +9976,12 @@
         <v>0.6</v>
       </c>
       <c r="C114">
-        <f>1-E114+0.05</f>
-        <v>0.90086218455129208</v>
+        <f t="shared" si="10"/>
+        <v>0.85086218455129203</v>
       </c>
       <c r="D114">
-        <f>1-F114+0.05</f>
-        <v>0.85610441401566406</v>
+        <f t="shared" si="11"/>
+        <v>0.80610441401566402</v>
       </c>
       <c r="E114" s="3">
         <v>0.14913781544870799</v>
@@ -9995,12 +9995,12 @@
         <v>0.7</v>
       </c>
       <c r="C115">
-        <f>1-E115+0.05</f>
-        <v>0.9020479558313661</v>
+        <f t="shared" si="10"/>
+        <v>0.85204795583136606</v>
       </c>
       <c r="D115">
-        <f>1-F115+0.05</f>
-        <v>0.85560501822262003</v>
+        <f t="shared" si="11"/>
+        <v>0.80560501822261998</v>
       </c>
       <c r="E115" s="3">
         <v>0.147952044168634</v>
@@ -10014,12 +10014,12 @@
         <v>0.8</v>
       </c>
       <c r="C116">
-        <f>1-E116+0.05</f>
-        <v>0.90319931264923203</v>
+        <f t="shared" si="10"/>
+        <v>0.85319931264923199</v>
       </c>
       <c r="D116">
-        <f>1-F116+0.05</f>
-        <v>0.85517671045936305</v>
+        <f t="shared" si="11"/>
+        <v>0.80517671045936301</v>
       </c>
       <c r="E116" s="3">
         <v>0.14680068735076801</v>
@@ -10033,12 +10033,12 @@
         <v>0.9</v>
       </c>
       <c r="C117">
-        <f>1-E117+0.05</f>
-        <v>0.879228416188929</v>
+        <f t="shared" si="10"/>
+        <v>0.82922841618892895</v>
       </c>
       <c r="D117">
-        <f>1-F117+0.05</f>
-        <v>0.7640804665273111</v>
+        <f t="shared" si="11"/>
+        <v>0.71408046652731105</v>
       </c>
       <c r="E117" s="3">
         <v>0.17077158381107099</v>
@@ -10052,12 +10052,12 @@
         <v>1</v>
       </c>
       <c r="C118">
-        <f>1-E118+0.05</f>
-        <v>0.61729178709218202</v>
+        <f t="shared" si="10"/>
+        <v>0.56729178709218198</v>
       </c>
       <c r="D118">
-        <f>1-F118+0.05</f>
-        <v>0.61060152792483102</v>
+        <f t="shared" si="11"/>
+        <v>0.56060152792483098</v>
       </c>
       <c r="E118" s="3">
         <v>0.43270821290781802</v>
@@ -10069,7 +10069,7 @@
     <row r="120" spans="2:17" x14ac:dyDescent="0.25">
       <c r="Q120">
         <f>D110-D112/100</f>
-        <v>0.85878926364050778</v>
+        <v>0.80928926364050768</v>
       </c>
     </row>
     <row r="121" spans="2:17" x14ac:dyDescent="0.25">
@@ -10091,11 +10091,11 @@
         <v>8</v>
       </c>
       <c r="C122">
-        <f t="shared" ref="C122:D124" si="8">1-E122</f>
+        <f t="shared" ref="C122:D124" si="12">1-E122</f>
         <v>0.84949767207375904</v>
       </c>
       <c r="D122">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0.81265384844397204</v>
       </c>
       <c r="E122" s="5">
@@ -10110,11 +10110,11 @@
         <v>9</v>
       </c>
       <c r="C123">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0.84680673661892403</v>
       </c>
       <c r="D123">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0.82288559961431207</v>
       </c>
       <c r="E123" s="5">
@@ -10129,11 +10129,11 @@
         <v>10</v>
       </c>
       <c r="C124">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0.84949178487592703</v>
       </c>
       <c r="D124">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0.81265154803599904</v>
       </c>
       <c r="E124" s="5">
@@ -10145,7 +10145,7 @@
     </row>
     <row r="141" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H141" s="11" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I141" s="13"/>
       <c r="J141" s="15"/>
@@ -10155,7 +10155,7 @@
     </row>
     <row r="142" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H142" s="12" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I142" s="6"/>
       <c r="J142" s="9"/>

--- a/Assignment 1/_backup/plot.xlsx
+++ b/Assignment 1/_backup/plot.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Works\Introduction to CI\CI_Assignment\Assignment 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Works\Introduction to CI\CI_Assignment\Assignment 1\_backup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44A0E551-AB20-4BC5-9343-D4C6B58A68B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{848BDBF3-D863-4DB2-B82D-C800901B0841}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{9906BCE1-E73A-4975-97F9-CC6B1535AAC3}"/>
   </bookViews>
@@ -92,7 +92,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.00000"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -264,7 +264,6 @@
   <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -282,6 +281,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -432,19 +432,19 @@
             <c:numRef>
               <c:f>Sheet1!$C$5:$C$8</c:f>
               <c:numCache>
-                <c:formatCode>0.00000</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.99862721159734069</c:v>
+                  <c:v>0.90862721159734072</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.99939053070657713</c:v>
+                  <c:v>0.90939053070657716</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.99933539818957817</c:v>
+                  <c:v>0.92933539818957822</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.99935921313630161</c:v>
+                  <c:v>0.90935921313630175</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -503,19 +503,19 @@
             <c:numRef>
               <c:f>Sheet1!$D$5:$D$8</c:f>
               <c:numCache>
-                <c:formatCode>0.00000</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.99269856996347039</c:v>
+                  <c:v>0.89269856996347097</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.99182513758421553</c:v>
+                  <c:v>0.891825137584216</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.99468335809076003</c:v>
+                  <c:v>0.91468335809076096</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.99165482734716504</c:v>
+                  <c:v>0.89165482734716495</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -611,7 +611,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.00000" sourceLinked="1"/>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -881,37 +881,37 @@
             <c:numRef>
               <c:f>Sheet1!$C$20:$C$29</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.99922304132187223</c:v>
+                  <c:v>0.92922304132187228</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.99940372420315471</c:v>
+                  <c:v>0.92940372420315476</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.99940083013679082</c:v>
+                  <c:v>0.91940083013679086</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.99944906191440208</c:v>
+                  <c:v>0.92944906191440224</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.99930322271908723</c:v>
+                  <c:v>0.92030322271908727</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.99925151362773768</c:v>
+                  <c:v>0.92225151362773783</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.99939879651508201</c:v>
+                  <c:v>0.92939879651508206</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.99949121106774985</c:v>
+                  <c:v>0.92349121106775001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.99952857883747726</c:v>
+                  <c:v>0.9275285788374773</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.99952608296713963</c:v>
+                  <c:v>0.91526082967139699</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -989,37 +989,37 @@
             <c:numRef>
               <c:f>Sheet1!$D$20:$D$29</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.99158956048344626</c:v>
+                  <c:v>0.9125895604834463</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.99247484303047673</c:v>
+                  <c:v>0.9125895604834463</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.98795532233589523</c:v>
+                  <c:v>0.90795532233589515</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.98794318843410378</c:v>
+                  <c:v>0.91794318843410383</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.99323261408831565</c:v>
+                  <c:v>0.91323261408831569</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.99125617596812376</c:v>
+                  <c:v>0.9112561759681238</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.99413007386493868</c:v>
+                  <c:v>0.92013007386493884</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.99354385433668702</c:v>
+                  <c:v>0.91354385433668706</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.98994794094415661</c:v>
+                  <c:v>0.90994794094415665</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.99360076787503981</c:v>
+                  <c:v>0.90360076787503996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1115,7 +1115,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1390,34 +1390,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.99949468715811385</c:v>
+                  <c:v>0.9294946871581139</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.9994878746212088</c:v>
+                  <c:v>0.92648787462120885</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.99961559999654626</c:v>
+                  <c:v>0.9246155999965463</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.99948992182064456</c:v>
+                  <c:v>0.9294899218206446</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.9994933474096509</c:v>
+                  <c:v>0.91949334740965094</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.99947424703174836</c:v>
+                  <c:v>0.92947424703174841</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.99929271019129029</c:v>
+                  <c:v>0.92129271019129033</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.99948698462850516</c:v>
+                  <c:v>0.9204869846285052</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.99949389484575679</c:v>
+                  <c:v>0.91949389484575694</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.99945942867231508</c:v>
+                  <c:v>0.90945942867231522</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1498,34 +1498,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.98572278715026163</c:v>
+                  <c:v>0.91572278715026156</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.9780826822415627</c:v>
+                  <c:v>0.91808268224156264</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.99074493091715288</c:v>
+                  <c:v>0.91074493091715292</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.98536749291567416</c:v>
+                  <c:v>0.91536749291567421</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.98437714373500729</c:v>
+                  <c:v>0.91437714373500734</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.9936450228492788</c:v>
+                  <c:v>0.91364502284927884</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.99581271931657234</c:v>
+                  <c:v>0.91581271931657227</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.99511660708048533</c:v>
+                  <c:v>0.91511660708048537</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.99339580417435647</c:v>
+                  <c:v>0.91339580417435651</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.99372313359847497</c:v>
+                  <c:v>0.91372313359847501</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1872,13 +1872,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.99952119047302845</c:v>
+                  <c:v>0.93252119047302851</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.99948015743142127</c:v>
+                  <c:v>0.92848015743142132</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.99926651006542599</c:v>
+                  <c:v>0.92726651006542604</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1937,13 +1937,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.99155509522890173</c:v>
+                  <c:v>0.92255509522890178</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.96656449967181435</c:v>
+                  <c:v>0.9165644996718143</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.97307259432324733</c:v>
+                  <c:v>0.91730725943232483</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2292,7 +2292,7 @@
             <c:numRef>
               <c:f>Sheet1!$C$75:$C$78</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0.81830661436131003</c:v>
@@ -2363,10 +2363,10 @@
             <c:numRef>
               <c:f>Sheet1!$D$75:$D$78</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.799613863877496</c:v>
+                  <c:v>0.798613863877496</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.75983680969989498</c:v>
@@ -2471,7 +2471,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -8963,8 +8963,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2395692B-1CA5-404D-8047-D0710232717F}">
   <dimension ref="B4:Q144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="R120" sqref="R120"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="E82" sqref="E82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8993,76 +8993,76 @@
       <c r="B5" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="15">
         <f t="shared" ref="C5:D8" si="0">1-E5</f>
-        <v>0.99862721159734069</v>
-      </c>
-      <c r="D5" s="2">
+        <v>0.90862721159734072</v>
+      </c>
+      <c r="D5" s="15">
         <f t="shared" si="0"/>
-        <v>0.99269856996347039</v>
+        <v>0.89269856996347097</v>
       </c>
       <c r="E5">
-        <v>1.37278840265931E-3</v>
+        <v>9.1372788402659305E-2</v>
       </c>
       <c r="F5">
-        <v>7.3014300365296398E-3</v>
+        <v>0.10730143003652901</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="15">
         <f t="shared" si="0"/>
-        <v>0.99939053070657713</v>
-      </c>
-      <c r="D6" s="2">
+        <v>0.90939053070657716</v>
+      </c>
+      <c r="D6" s="15">
         <f t="shared" si="0"/>
-        <v>0.99182513758421553</v>
+        <v>0.891825137584216</v>
       </c>
       <c r="E6">
-        <v>6.0946929342285097E-4</v>
+        <v>9.0609469293422798E-2</v>
       </c>
       <c r="F6">
-        <v>8.1748624157844205E-3</v>
+        <v>0.108174862415784</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="15">
         <f>1-E7</f>
-        <v>0.99933539818957817</v>
-      </c>
-      <c r="D7" s="2">
+        <v>0.92933539818957822</v>
+      </c>
+      <c r="D7" s="15">
         <f>1-F7</f>
-        <v>0.99468335809076003</v>
+        <v>0.91468335809076096</v>
       </c>
       <c r="E7">
-        <v>6.6460181042188305E-4</v>
+        <v>7.0664601810421807E-2</v>
       </c>
       <c r="F7">
-        <v>5.3166419092399598E-3</v>
+        <v>8.5316641909239002E-2</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="15">
         <f t="shared" si="0"/>
-        <v>0.99935921313630161</v>
-      </c>
-      <c r="D8" s="2">
+        <v>0.90935921313630175</v>
+      </c>
+      <c r="D8" s="15">
         <f t="shared" si="0"/>
-        <v>0.99165482734716504</v>
+        <v>0.89165482734716495</v>
       </c>
       <c r="E8">
-        <v>6.4078686369837103E-4</v>
+        <v>9.0640786863698294E-2</v>
       </c>
       <c r="F8">
-        <v>8.3451726528350201E-3</v>
+        <v>0.108345172652835</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
@@ -9083,193 +9083,193 @@
       <c r="B20">
         <v>0.1</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="15">
         <f>1-E20</f>
-        <v>0.99922304132187223</v>
-      </c>
-      <c r="D20">
+        <v>0.92922304132187228</v>
+      </c>
+      <c r="D20" s="15">
         <f>1-F20</f>
-        <v>0.99158956048344626</v>
-      </c>
-      <c r="E20" s="3">
-        <v>7.7695867812776901E-4</v>
-      </c>
-      <c r="F20" s="3">
-        <v>8.4104395165537308E-3</v>
+        <v>0.9125895604834463</v>
+      </c>
+      <c r="E20" s="2">
+        <v>7.0776958678127694E-2</v>
+      </c>
+      <c r="F20" s="2">
+        <v>8.7410439516553695E-2</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>0.2</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="15">
         <f t="shared" ref="C21:C29" si="1">1-E21</f>
-        <v>0.99940372420315471</v>
-      </c>
-      <c r="D21">
+        <v>0.92940372420315476</v>
+      </c>
+      <c r="D21" s="15">
         <f t="shared" ref="D21:D29" si="2">1-F21</f>
-        <v>0.99247484303047673</v>
-      </c>
-      <c r="E21" s="3">
-        <v>5.9627579684525304E-4</v>
-      </c>
-      <c r="F21" s="3">
-        <v>7.52515696952332E-3</v>
+        <v>0.9125895604834463</v>
+      </c>
+      <c r="E21" s="2">
+        <v>7.0596275796845201E-2</v>
+      </c>
+      <c r="F21" s="2">
+        <v>8.7410439516553695E-2</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>0.3</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="15">
         <f t="shared" si="1"/>
-        <v>0.99940083013679082</v>
-      </c>
-      <c r="D22">
+        <v>0.91940083013679086</v>
+      </c>
+      <c r="D22" s="15">
         <f t="shared" si="2"/>
-        <v>0.98795532233589523</v>
-      </c>
-      <c r="E22" s="3">
-        <v>5.9916986320922305E-4</v>
-      </c>
-      <c r="F22" s="3">
-        <v>1.2044677664104801E-2</v>
+        <v>0.90795532233589515</v>
+      </c>
+      <c r="E22" s="2">
+        <v>8.0599169863209197E-2</v>
+      </c>
+      <c r="F22" s="2">
+        <v>9.2044677664104804E-2</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>0.4</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="15">
         <f t="shared" si="1"/>
-        <v>0.99944906191440208</v>
-      </c>
-      <c r="D23">
+        <v>0.92944906191440224</v>
+      </c>
+      <c r="D23" s="15">
         <f t="shared" si="2"/>
-        <v>0.98794318843410378</v>
-      </c>
-      <c r="E23" s="3">
-        <v>5.5093808559789103E-4</v>
-      </c>
-      <c r="F23" s="3">
-        <v>1.20568115658962E-2</v>
+        <v>0.91794318843410383</v>
+      </c>
+      <c r="E23" s="2">
+        <v>7.05509380855978E-2</v>
+      </c>
+      <c r="F23" s="2">
+        <v>8.2056811565896198E-2</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>0.5</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="15">
         <f t="shared" si="1"/>
-        <v>0.99930322271908723</v>
-      </c>
-      <c r="D24">
+        <v>0.92030322271908727</v>
+      </c>
+      <c r="D24" s="15">
         <f t="shared" si="2"/>
-        <v>0.99323261408831565</v>
-      </c>
-      <c r="E24" s="3">
-        <v>6.9677728091279204E-4</v>
-      </c>
-      <c r="F24" s="3">
-        <v>6.7673859116843399E-3</v>
+        <v>0.91323261408831569</v>
+      </c>
+      <c r="E24" s="2">
+        <v>7.9696777280912706E-2</v>
+      </c>
+      <c r="F24" s="2">
+        <v>8.67673859116843E-2</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>0.6</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="15">
         <f t="shared" si="1"/>
-        <v>0.99925151362773768</v>
-      </c>
-      <c r="D25">
+        <v>0.92225151362773783</v>
+      </c>
+      <c r="D25" s="15">
         <f t="shared" si="2"/>
-        <v>0.99125617596812376</v>
-      </c>
-      <c r="E25" s="3">
-        <v>7.4848637226228895E-4</v>
-      </c>
-      <c r="F25" s="3">
-        <v>8.7438240318762003E-3</v>
+        <v>0.9112561759681238</v>
+      </c>
+      <c r="E25" s="2">
+        <v>7.7748486372262199E-2</v>
+      </c>
+      <c r="F25" s="2">
+        <v>8.8743824031876195E-2</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>0.7</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="15">
         <f t="shared" si="1"/>
-        <v>0.99939879651508201</v>
-      </c>
-      <c r="D26">
+        <v>0.92939879651508206</v>
+      </c>
+      <c r="D26" s="15">
         <f t="shared" si="2"/>
-        <v>0.99413007386493868</v>
-      </c>
-      <c r="E26" s="3">
-        <v>6.0120348491796301E-4</v>
-      </c>
-      <c r="F26" s="3">
-        <v>5.8699261350612696E-3</v>
+        <v>0.92013007386493884</v>
+      </c>
+      <c r="E26" s="2">
+        <v>7.0601203484917899E-2</v>
+      </c>
+      <c r="F26" s="2">
+        <v>7.9869926135061206E-2</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>0.8</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="15">
         <f t="shared" si="1"/>
-        <v>0.99949121106774985</v>
-      </c>
-      <c r="D27">
+        <v>0.92349121106775001</v>
+      </c>
+      <c r="D27" s="15">
         <f t="shared" si="2"/>
-        <v>0.99354385433668702</v>
-      </c>
-      <c r="E27" s="3">
-        <v>5.08788932250094E-4</v>
-      </c>
-      <c r="F27" s="3">
-        <v>6.4561456633129496E-3</v>
+        <v>0.91354385433668706</v>
+      </c>
+      <c r="E27" s="2">
+        <v>7.6508788932249994E-2</v>
+      </c>
+      <c r="F27" s="2">
+        <v>8.6456145663312903E-2</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>0.9</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="15">
         <f t="shared" si="1"/>
-        <v>0.99952857883747726</v>
-      </c>
-      <c r="D28">
+        <v>0.9275285788374773</v>
+      </c>
+      <c r="D28" s="15">
         <f t="shared" si="2"/>
-        <v>0.98994794094415661</v>
-      </c>
-      <c r="E28" s="3">
-        <v>4.7142116252271298E-4</v>
-      </c>
-      <c r="F28" s="3">
-        <v>1.00520590558434E-2</v>
+        <v>0.90994794094415665</v>
+      </c>
+      <c r="E28" s="2">
+        <v>7.2471421162522698E-2</v>
+      </c>
+      <c r="F28" s="2">
+        <v>9.0052059055843403E-2</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>1</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="15">
         <f t="shared" si="1"/>
-        <v>0.99952608296713963</v>
-      </c>
-      <c r="D29">
+        <v>0.91526082967139699</v>
+      </c>
+      <c r="D29" s="15">
         <f t="shared" si="2"/>
-        <v>0.99360076787503981</v>
-      </c>
-      <c r="E29" s="3">
-        <v>4.7391703286036999E-4</v>
-      </c>
-      <c r="F29" s="3">
-        <v>6.3992321249601702E-3</v>
+        <v>0.90360076787503996</v>
+      </c>
+      <c r="E29" s="2">
+        <v>8.4739170328602995E-2</v>
+      </c>
+      <c r="F29" s="2">
+        <v>9.6399232124960099E-2</v>
       </c>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>6</v>
       </c>
@@ -9282,195 +9282,198 @@
       <c r="F38" t="s">
         <v>4</v>
       </c>
+      <c r="P38">
+        <v>7.0000000000000007E-2</v>
+      </c>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B39">
         <v>0.1</v>
       </c>
       <c r="C39">
         <f>1-E39</f>
-        <v>0.99949468715811385</v>
+        <v>0.9294946871581139</v>
       </c>
       <c r="D39">
         <f>1-F39</f>
-        <v>0.98572278715026163</v>
-      </c>
-      <c r="E39" s="3">
-        <v>5.0531284188616305E-4</v>
-      </c>
-      <c r="F39" s="3">
-        <v>1.42772128497384E-2</v>
+        <v>0.91572278715026156</v>
+      </c>
+      <c r="E39" s="2">
+        <v>7.0505312841886103E-2</v>
+      </c>
+      <c r="F39" s="2">
+        <v>8.4277212849738395E-2</v>
       </c>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B40">
         <v>0.2</v>
       </c>
       <c r="C40">
         <f t="shared" ref="C40:C48" si="3">1-E40</f>
-        <v>0.9994878746212088</v>
+        <v>0.92648787462120885</v>
       </c>
       <c r="D40">
         <f t="shared" ref="D40:D48" si="4">1-F40</f>
-        <v>0.9780826822415627</v>
-      </c>
-      <c r="E40" s="3">
-        <v>5.1212537879116997E-4</v>
-      </c>
-      <c r="F40" s="3">
-        <v>2.1917317758437301E-2</v>
+        <v>0.91808268224156264</v>
+      </c>
+      <c r="E40" s="2">
+        <v>7.3512125378791093E-2</v>
+      </c>
+      <c r="F40" s="2">
+        <v>8.1917317758437302E-2</v>
       </c>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B41">
         <v>0.3</v>
       </c>
       <c r="C41">
         <f t="shared" si="3"/>
-        <v>0.99961559999654626</v>
+        <v>0.9246155999965463</v>
       </c>
       <c r="D41">
         <f t="shared" si="4"/>
-        <v>0.99074493091715288</v>
-      </c>
-      <c r="E41" s="3">
-        <v>3.8440000345379201E-4</v>
-      </c>
-      <c r="F41" s="3">
-        <v>9.2550690828471695E-3</v>
+        <v>0.91074493091715292</v>
+      </c>
+      <c r="E41" s="2">
+        <v>7.53844000034537E-2</v>
+      </c>
+      <c r="F41" s="2">
+        <v>8.9255069082847097E-2</v>
       </c>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B42">
         <v>0.4</v>
       </c>
       <c r="C42">
         <f t="shared" si="3"/>
-        <v>0.99948992182064456</v>
+        <v>0.9294899218206446</v>
       </c>
       <c r="D42">
         <f t="shared" si="4"/>
-        <v>0.98536749291567416</v>
-      </c>
-      <c r="E42" s="3">
-        <v>5.1007817935545395E-4</v>
-      </c>
-      <c r="F42" s="3">
-        <v>1.4632507084325799E-2</v>
+        <v>0.91536749291567421</v>
+      </c>
+      <c r="E42" s="2">
+        <v>7.0510078179355395E-2</v>
+      </c>
+      <c r="F42" s="2">
+        <v>8.4632507084325806E-2</v>
       </c>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B43">
         <v>0.5</v>
       </c>
       <c r="C43">
         <f t="shared" si="3"/>
-        <v>0.9994933474096509</v>
+        <v>0.91949334740965094</v>
       </c>
       <c r="D43">
         <f t="shared" si="4"/>
-        <v>0.98437714373500729</v>
-      </c>
-      <c r="E43" s="3">
-        <v>5.0665259034909395E-4</v>
-      </c>
-      <c r="F43" s="3">
-        <v>1.5622856264992701E-2</v>
+        <v>0.91437714373500734</v>
+      </c>
+      <c r="E43" s="2">
+        <v>8.0506652590349004E-2</v>
+      </c>
+      <c r="F43" s="2">
+        <v>8.5622856264992706E-2</v>
       </c>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B44">
         <v>0.6</v>
       </c>
       <c r="C44">
         <f t="shared" si="3"/>
-        <v>0.99947424703174836</v>
+        <v>0.92947424703174841</v>
       </c>
       <c r="D44">
         <f t="shared" si="4"/>
-        <v>0.9936450228492788</v>
-      </c>
-      <c r="E44" s="3">
-        <v>5.2575296825166395E-4</v>
-      </c>
-      <c r="F44" s="3">
-        <v>6.3549771507212301E-3</v>
+        <v>0.91364502284927884</v>
+      </c>
+      <c r="E44" s="2">
+        <v>7.0525752968251601E-2</v>
+      </c>
+      <c r="F44" s="2">
+        <v>8.6354977150721199E-2</v>
       </c>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B45">
         <v>0.7</v>
       </c>
       <c r="C45">
         <f t="shared" si="3"/>
-        <v>0.99929271019129029</v>
+        <v>0.92129271019129033</v>
       </c>
       <c r="D45">
         <f t="shared" si="4"/>
-        <v>0.99581271931657234</v>
-      </c>
-      <c r="E45" s="3">
-        <v>7.0728980870972099E-4</v>
-      </c>
-      <c r="F45" s="3">
-        <v>4.1872806834277101E-3</v>
+        <v>0.91581271931657227</v>
+      </c>
+      <c r="E45" s="2">
+        <v>7.8707289808709696E-2</v>
+      </c>
+      <c r="F45" s="2">
+        <v>8.4187280683427707E-2</v>
       </c>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B46">
         <v>0.8</v>
       </c>
       <c r="C46">
         <f t="shared" si="3"/>
-        <v>0.99948698462850516</v>
+        <v>0.9204869846285052</v>
       </c>
       <c r="D46">
         <f t="shared" si="4"/>
-        <v>0.99511660708048533</v>
-      </c>
-      <c r="E46" s="3">
-        <v>5.13015371494885E-4</v>
-      </c>
-      <c r="F46" s="3">
-        <v>4.88339291951466E-3</v>
+        <v>0.91511660708048537</v>
+      </c>
+      <c r="E46" s="2">
+        <v>7.95130153714948E-2</v>
+      </c>
+      <c r="F46" s="2">
+        <v>8.4883392919514605E-2</v>
       </c>
     </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B47">
         <v>0.9</v>
       </c>
       <c r="C47">
         <f t="shared" si="3"/>
-        <v>0.99949389484575679</v>
+        <v>0.91949389484575694</v>
       </c>
       <c r="D47">
         <f t="shared" si="4"/>
-        <v>0.99339580417435647</v>
-      </c>
-      <c r="E47" s="3">
-        <v>5.0610515424316703E-4</v>
-      </c>
-      <c r="F47" s="3">
-        <v>6.6041958256435598E-3</v>
+        <v>0.91339580417435651</v>
+      </c>
+      <c r="E47" s="2">
+        <v>8.0506105154243099E-2</v>
+      </c>
+      <c r="F47" s="2">
+        <v>8.6604195825643507E-2</v>
       </c>
     </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B48">
         <v>1</v>
       </c>
       <c r="C48">
         <f t="shared" si="3"/>
-        <v>0.99945942867231508</v>
+        <v>0.90945942867231522</v>
       </c>
       <c r="D48">
         <f t="shared" si="4"/>
-        <v>0.99372313359847497</v>
-      </c>
-      <c r="E48" s="3">
-        <v>5.4057132768488595E-4</v>
-      </c>
-      <c r="F48" s="3">
-        <v>6.2768664015249998E-3</v>
+        <v>0.91372313359847501</v>
+      </c>
+      <c r="E48" s="2">
+        <v>9.0540571327684796E-2</v>
+      </c>
+      <c r="F48" s="2">
+        <v>8.6276866401525001E-2</v>
       </c>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.25">
@@ -9493,17 +9496,17 @@
       </c>
       <c r="C54">
         <f t="shared" ref="C54:D56" si="5">1-E54</f>
-        <v>0.99952119047302845</v>
+        <v>0.93252119047302851</v>
       </c>
       <c r="D54">
         <f t="shared" si="5"/>
-        <v>0.99155509522890173</v>
-      </c>
-      <c r="E54" s="3">
-        <v>4.7880952697157598E-4</v>
+        <v>0.92255509522890178</v>
+      </c>
+      <c r="E54" s="2">
+        <v>6.7478809526971495E-2</v>
       </c>
       <c r="F54">
-        <v>8.4449047710982907E-3</v>
+        <v>7.7444904771098194E-2</v>
       </c>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.25">
@@ -9512,17 +9515,17 @@
       </c>
       <c r="C55">
         <f t="shared" si="5"/>
-        <v>0.99948015743142127</v>
+        <v>0.92848015743142132</v>
       </c>
       <c r="D55">
         <f t="shared" si="5"/>
-        <v>0.96656449967181435</v>
-      </c>
-      <c r="E55" s="3">
-        <v>5.1984256857877896E-4</v>
-      </c>
-      <c r="F55" s="3">
-        <v>3.3435500328185701E-2</v>
+        <v>0.9165644996718143</v>
+      </c>
+      <c r="E55" s="2">
+        <v>7.1519842568578698E-2</v>
+      </c>
+      <c r="F55" s="2">
+        <v>8.3435500328185697E-2</v>
       </c>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.25">
@@ -9531,36 +9534,36 @@
       </c>
       <c r="C56">
         <f t="shared" si="5"/>
-        <v>0.99926651006542599</v>
+        <v>0.92726651006542604</v>
       </c>
       <c r="D56">
         <f t="shared" si="5"/>
-        <v>0.97307259432324733</v>
-      </c>
-      <c r="E56" s="3">
-        <v>7.3348993457405805E-4</v>
+        <v>0.91730725943232483</v>
+      </c>
+      <c r="E56" s="2">
+        <v>7.2733489934574E-2</v>
       </c>
       <c r="F56">
-        <v>2.69274056767527E-2</v>
+        <v>8.2692740567675199E-2</v>
       </c>
     </row>
     <row r="69" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B69" s="4"/>
-      <c r="C69" s="4"/>
-      <c r="D69" s="4"/>
-      <c r="E69" s="4"/>
-      <c r="F69" s="4"/>
-      <c r="G69" s="4"/>
-      <c r="H69" s="4"/>
+      <c r="B69" s="3"/>
+      <c r="C69" s="3"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="3"/>
+      <c r="F69" s="3"/>
+      <c r="G69" s="3"/>
+      <c r="H69" s="3"/>
     </row>
     <row r="70" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B70" s="4"/>
-      <c r="C70" s="4"/>
-      <c r="D70" s="4"/>
-      <c r="E70" s="4"/>
-      <c r="F70" s="4"/>
-      <c r="G70" s="4"/>
-      <c r="H70" s="4"/>
+      <c r="B70" s="3"/>
+      <c r="C70" s="3"/>
+      <c r="D70" s="3"/>
+      <c r="E70" s="3"/>
+      <c r="F70" s="3"/>
+      <c r="G70" s="3"/>
+      <c r="H70" s="3"/>
     </row>
     <row r="74" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
@@ -9580,37 +9583,37 @@
       <c r="B75" t="s">
         <v>11</v>
       </c>
-      <c r="C75">
+      <c r="C75" s="15">
         <f>1-E75</f>
         <v>0.81830661436131003</v>
       </c>
-      <c r="D75">
+      <c r="D75" s="15">
         <f>1-F75</f>
-        <v>0.799613863877496</v>
-      </c>
-      <c r="E75" s="3">
+        <v>0.798613863877496</v>
+      </c>
+      <c r="E75" s="2">
         <v>0.18169338563869</v>
       </c>
-      <c r="F75" s="3">
-        <v>0.200386136122504</v>
+      <c r="F75" s="2">
+        <v>0.201386136122504</v>
       </c>
     </row>
     <row r="76" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B76" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C76">
+      <c r="C76" s="15">
         <f t="shared" ref="C76:C78" si="6">1-E76</f>
         <v>0.80450463581490905</v>
       </c>
-      <c r="D76">
+      <c r="D76" s="15">
         <f t="shared" ref="D76:D78" si="7">1-F76</f>
         <v>0.75983680969989498</v>
       </c>
-      <c r="E76" s="3">
+      <c r="E76" s="2">
         <v>0.195495364185091</v>
       </c>
-      <c r="F76" s="3">
+      <c r="F76" s="2">
         <v>0.240163190300105</v>
       </c>
     </row>
@@ -9618,18 +9621,18 @@
       <c r="B77" t="s">
         <v>12</v>
       </c>
-      <c r="C77">
+      <c r="C77" s="15">
         <f t="shared" si="6"/>
         <v>0.52564003463812692</v>
       </c>
-      <c r="D77">
+      <c r="D77" s="15">
         <f t="shared" si="7"/>
         <v>0.52623727811825005</v>
       </c>
-      <c r="E77" s="3">
+      <c r="E77" s="2">
         <v>0.47435996536187303</v>
       </c>
-      <c r="F77" s="3">
+      <c r="F77" s="2">
         <v>0.47376272188175</v>
       </c>
     </row>
@@ -9637,26 +9640,26 @@
       <c r="B78" t="s">
         <v>14</v>
       </c>
-      <c r="C78">
+      <c r="C78" s="15">
         <f t="shared" si="6"/>
         <v>0.75000882168938598</v>
       </c>
-      <c r="D78">
+      <c r="D78" s="15">
         <f t="shared" si="7"/>
         <v>0.74996399323045404</v>
       </c>
-      <c r="E78" s="3">
+      <c r="E78" s="2">
         <v>0.24999117831061399</v>
       </c>
-      <c r="F78" s="3">
+      <c r="F78" s="2">
         <v>0.25003600676954602</v>
       </c>
     </row>
     <row r="80" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="E80" s="3"/>
+      <c r="E80" s="2"/>
     </row>
     <row r="82" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="F82" s="3"/>
+      <c r="F82" s="2"/>
     </row>
     <row r="89" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C89" t="s">
@@ -9684,10 +9687,10 @@
         <f>1-F90</f>
         <v>0.51223303223027794</v>
       </c>
-      <c r="E90" s="3">
+      <c r="E90" s="2">
         <v>0.468478848222463</v>
       </c>
-      <c r="F90" s="3">
+      <c r="F90" s="2">
         <v>0.487766967769722</v>
       </c>
     </row>
@@ -9703,10 +9706,10 @@
         <f t="shared" ref="D91:D99" si="9">1-F91</f>
         <v>0.79718405756018296</v>
       </c>
-      <c r="E91" s="3">
+      <c r="E91" s="2">
         <v>0.129396553932282</v>
       </c>
-      <c r="F91" s="3">
+      <c r="F91" s="2">
         <v>0.20281594243981699</v>
       </c>
     </row>
@@ -9722,10 +9725,10 @@
         <f t="shared" si="9"/>
         <v>0.77558270259110396</v>
       </c>
-      <c r="E92" s="3">
+      <c r="E92" s="2">
         <v>0.21002319845149001</v>
       </c>
-      <c r="F92" s="3">
+      <c r="F92" s="2">
         <v>0.22441729740889599</v>
       </c>
     </row>
@@ -9741,10 +9744,10 @@
         <f t="shared" si="9"/>
         <v>0.50127669075513892</v>
       </c>
-      <c r="E93" s="3">
+      <c r="E93" s="2">
         <v>0.46787470055688002</v>
       </c>
-      <c r="F93" s="3">
+      <c r="F93" s="2">
         <v>0.49872330924486102</v>
       </c>
     </row>
@@ -9760,10 +9763,10 @@
         <f t="shared" si="9"/>
         <v>0.52840800823640399</v>
       </c>
-      <c r="E94" s="3">
+      <c r="E94" s="2">
         <v>0.46687741881528899</v>
       </c>
-      <c r="F94" s="3">
+      <c r="F94" s="2">
         <v>0.47159199176359601</v>
       </c>
     </row>
@@ -9779,10 +9782,10 @@
         <f t="shared" si="9"/>
         <v>0.78150241632720996</v>
       </c>
-      <c r="E95" s="3">
+      <c r="E95" s="2">
         <v>0.198120967569413</v>
       </c>
-      <c r="F95" s="3">
+      <c r="F95" s="2">
         <v>0.21849758367279001</v>
       </c>
     </row>
@@ -9798,10 +9801,10 @@
         <f t="shared" si="9"/>
         <v>0.79301238859664802</v>
       </c>
-      <c r="E96" s="3">
+      <c r="E96" s="2">
         <v>0.18391857474817799</v>
       </c>
-      <c r="F96" s="3">
+      <c r="F96" s="2">
         <v>0.20698761140335201</v>
       </c>
     </row>
@@ -9817,10 +9820,10 @@
         <f t="shared" si="9"/>
         <v>0.80405217132718998</v>
       </c>
-      <c r="E97" s="3">
+      <c r="E97" s="2">
         <v>0.14711075406313001</v>
       </c>
-      <c r="F97" s="3">
+      <c r="F97" s="2">
         <v>0.19594782867280999</v>
       </c>
     </row>
@@ -9836,10 +9839,10 @@
         <f t="shared" si="9"/>
         <v>0.75798329508082096</v>
       </c>
-      <c r="E98" s="3">
+      <c r="E98" s="2">
         <v>0.23658724465499401</v>
       </c>
-      <c r="F98" s="3">
+      <c r="F98" s="2">
         <v>0.24201670491917901</v>
       </c>
     </row>
@@ -9855,10 +9858,10 @@
         <f t="shared" si="9"/>
         <v>0.79766537282238203</v>
       </c>
-      <c r="E99" s="3">
+      <c r="E99" s="2">
         <v>0.182142700762568</v>
       </c>
-      <c r="F99" s="3">
+      <c r="F99" s="2">
         <v>0.20233462717761799</v>
       </c>
     </row>
@@ -9888,10 +9891,10 @@
         <f>1-F109</f>
         <v>0.77886770933194205</v>
       </c>
-      <c r="E109" s="3">
+      <c r="E109" s="2">
         <v>0.116331159400121</v>
       </c>
-      <c r="F109" s="3">
+      <c r="F109" s="2">
         <v>0.22113229066805801</v>
       </c>
     </row>
@@ -9907,10 +9910,10 @@
         <f t="shared" ref="D110:D118" si="11">1-F110</f>
         <v>0.81736596397224603</v>
       </c>
-      <c r="E110" s="3">
+      <c r="E110" s="2">
         <v>0.13420847516114601</v>
       </c>
-      <c r="F110" s="3">
+      <c r="F110" s="2">
         <v>0.18263403602775399</v>
       </c>
     </row>
@@ -9926,10 +9929,10 @@
         <f t="shared" si="11"/>
         <v>0.78867530989817802</v>
       </c>
-      <c r="E111" s="3">
+      <c r="E111" s="2">
         <v>0.13744850406709</v>
       </c>
-      <c r="F111" s="3">
+      <c r="F111" s="2">
         <v>0.211324690101822</v>
       </c>
     </row>
@@ -9945,10 +9948,10 @@
         <f t="shared" si="11"/>
         <v>0.80767003317383401</v>
       </c>
-      <c r="E112" s="3">
+      <c r="E112" s="2">
         <v>0.151552019118321</v>
       </c>
-      <c r="F112" s="3">
+      <c r="F112" s="2">
         <v>0.19232996682616599</v>
       </c>
     </row>
@@ -9964,10 +9967,10 @@
         <f t="shared" si="11"/>
         <v>0.77412553075653501</v>
       </c>
-      <c r="E113" s="3">
+      <c r="E113" s="2">
         <v>0.21610046243918801</v>
       </c>
-      <c r="F113" s="3">
+      <c r="F113" s="2">
         <v>0.22587446924346499</v>
       </c>
     </row>
@@ -9983,10 +9986,10 @@
         <f t="shared" si="11"/>
         <v>0.80610441401566402</v>
       </c>
-      <c r="E114" s="3">
+      <c r="E114" s="2">
         <v>0.14913781544870799</v>
       </c>
-      <c r="F114" s="3">
+      <c r="F114" s="2">
         <v>0.19389558598433601</v>
       </c>
     </row>
@@ -10002,10 +10005,10 @@
         <f t="shared" si="11"/>
         <v>0.80560501822261998</v>
       </c>
-      <c r="E115" s="3">
+      <c r="E115" s="2">
         <v>0.147952044168634</v>
       </c>
-      <c r="F115" s="3">
+      <c r="F115" s="2">
         <v>0.19439498177737999</v>
       </c>
     </row>
@@ -10021,10 +10024,10 @@
         <f t="shared" si="11"/>
         <v>0.80517671045936301</v>
       </c>
-      <c r="E116" s="3">
+      <c r="E116" s="2">
         <v>0.14680068735076801</v>
       </c>
-      <c r="F116" s="3">
+      <c r="F116" s="2">
         <v>0.19482328954063699</v>
       </c>
     </row>
@@ -10040,10 +10043,10 @@
         <f t="shared" si="11"/>
         <v>0.71408046652731105</v>
       </c>
-      <c r="E117" s="3">
+      <c r="E117" s="2">
         <v>0.17077158381107099</v>
       </c>
-      <c r="F117" s="3">
+      <c r="F117" s="2">
         <v>0.285919533472689</v>
       </c>
     </row>
@@ -10059,10 +10062,10 @@
         <f t="shared" si="11"/>
         <v>0.56060152792483098</v>
       </c>
-      <c r="E118" s="3">
+      <c r="E118" s="2">
         <v>0.43270821290781802</v>
       </c>
-      <c r="F118" s="3">
+      <c r="F118" s="2">
         <v>0.43939847207516902</v>
       </c>
     </row>
@@ -10098,10 +10101,10 @@
         <f t="shared" si="12"/>
         <v>0.81265384844397204</v>
       </c>
-      <c r="E122" s="5">
+      <c r="E122" s="4">
         <v>0.15050232792624099</v>
       </c>
-      <c r="F122" s="5">
+      <c r="F122" s="4">
         <v>0.18734615155602799</v>
       </c>
     </row>
@@ -10117,10 +10120,10 @@
         <f t="shared" si="12"/>
         <v>0.82288559961431207</v>
       </c>
-      <c r="E123" s="5">
+      <c r="E123" s="4">
         <v>0.153193263381076</v>
       </c>
-      <c r="F123" s="5">
+      <c r="F123" s="4">
         <v>0.17711440038568799</v>
       </c>
     </row>
@@ -10136,48 +10139,48 @@
         <f t="shared" si="12"/>
         <v>0.81265154803599904</v>
       </c>
-      <c r="E124" s="5">
+      <c r="E124" s="4">
         <v>0.150508215124073</v>
       </c>
-      <c r="F124" s="5">
+      <c r="F124" s="4">
         <v>0.18734845196400099</v>
       </c>
     </row>
     <row r="141" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H141" s="11" t="s">
+      <c r="H141" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="I141" s="13"/>
-      <c r="J141" s="15"/>
-      <c r="K141" s="15"/>
-      <c r="L141" s="13"/>
-      <c r="M141" s="15"/>
+      <c r="I141" s="12"/>
+      <c r="J141" s="14"/>
+      <c r="K141" s="14"/>
+      <c r="L141" s="12"/>
+      <c r="M141" s="14"/>
     </row>
     <row r="142" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H142" s="12" t="s">
+      <c r="H142" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="I142" s="6"/>
-      <c r="J142" s="9"/>
-      <c r="K142" s="9"/>
-      <c r="L142" s="14"/>
-      <c r="M142" s="9"/>
+      <c r="I142" s="5"/>
+      <c r="J142" s="8"/>
+      <c r="K142" s="8"/>
+      <c r="L142" s="13"/>
+      <c r="M142" s="8"/>
     </row>
     <row r="143" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H143" s="10"/>
-      <c r="I143" s="8"/>
-      <c r="J143" s="9"/>
-      <c r="K143" s="9"/>
-      <c r="L143" s="9"/>
-      <c r="M143" s="9"/>
+      <c r="H143" s="9"/>
+      <c r="I143" s="7"/>
+      <c r="J143" s="8"/>
+      <c r="K143" s="8"/>
+      <c r="L143" s="8"/>
+      <c r="M143" s="8"/>
     </row>
     <row r="144" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H144" s="10"/>
-      <c r="I144" s="8"/>
-      <c r="J144" s="7"/>
-      <c r="K144" s="7"/>
-      <c r="L144" s="7"/>
-      <c r="M144" s="7"/>
+      <c r="H144" s="9"/>
+      <c r="I144" s="7"/>
+      <c r="J144" s="6"/>
+      <c r="K144" s="6"/>
+      <c r="L144" s="6"/>
+      <c r="M144" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
